--- a/Excels/EventEmitter.xlsx
+++ b/Excels/EventEmitter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21951" windowHeight="10114"/>
+    <workbookView windowWidth="30240" windowHeight="13780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTrigger" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,14 +74,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -90,29 +126,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,31 +152,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,53 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +418,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,25 +469,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -494,177 +518,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,54 +678,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1025,18 +1025,18 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.7387387387387" customWidth="1"/>
-    <col min="2" max="3" width="16.9009009009009" customWidth="1"/>
-    <col min="4" max="4" width="20.6126126126126" customWidth="1"/>
-    <col min="5" max="5" width="19.5225225225225" customWidth="1"/>
-    <col min="6" max="6" width="21.0720720720721" customWidth="1"/>
-    <col min="7" max="7" width="30.6486486486486" customWidth="1"/>
+    <col min="1" max="1" width="12.7403846153846" customWidth="1"/>
+    <col min="2" max="3" width="16.9038461538462" customWidth="1"/>
+    <col min="4" max="4" width="20.6153846153846" customWidth="1"/>
+    <col min="5" max="5" width="19.5192307692308" customWidth="1"/>
+    <col min="6" max="6" width="21.0673076923077" customWidth="1"/>
+    <col min="7" max="7" width="30.6442307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
@@ -1328,12 +1328,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="14.4414414414414" customWidth="1"/>
-    <col min="2" max="2" width="19.8378378378378" customWidth="1"/>
-    <col min="3" max="3" width="17.9099099099099" customWidth="1"/>
-    <col min="4" max="4" width="19.5315315315315" customWidth="1"/>
+    <col min="1" max="1" width="14.4423076923077" customWidth="1"/>
+    <col min="2" max="2" width="19.8365384615385" customWidth="1"/>
+    <col min="3" max="3" width="17.9134615384615" customWidth="1"/>
+    <col min="4" max="4" width="19.5288461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1358,42 +1358,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="18:20">
+    <row r="28" ht="17.6" spans="18:20">
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" ht="15" spans="18:20">
+    <row r="29" ht="17.6" spans="18:20">
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" ht="15" spans="18:20">
+    <row r="30" ht="17.6" spans="18:20">
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" ht="15" spans="18:20">
+    <row r="31" ht="17.6" spans="18:20">
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" ht="15" spans="18:20">
+    <row r="32" ht="17.6" spans="18:20">
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" ht="15" spans="18:20">
+    <row r="33" ht="17.6" spans="18:20">
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" ht="15" spans="18:20">
+    <row r="34" ht="17.6" spans="18:20">
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" ht="15" spans="18:20">
+    <row r="35" ht="17.6" spans="18:20">
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -1407,20 +1407,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.6036036036036" customWidth="1"/>
-    <col min="2" max="2" width="36.1441441441441" customWidth="1"/>
-    <col min="3" max="3" width="17.6036036036036" customWidth="1"/>
-    <col min="4" max="4" width="19.0720720720721" customWidth="1"/>
-    <col min="5" max="5" width="17.6036036036036" customWidth="1"/>
-    <col min="6" max="6" width="20.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.6057692307692" customWidth="1"/>
+    <col min="2" max="2" width="36.1442307692308" customWidth="1"/>
+    <col min="3" max="3" width="17.6057692307692" customWidth="1"/>
+    <col min="4" max="4" width="19.0673076923077" customWidth="1"/>
+    <col min="5" max="5" width="17.6057692307692" customWidth="1"/>
+    <col min="6" max="6" width="20.6634615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1485,6 +1485,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>40012</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excels/EventEmitter.xlsx
+++ b/Excels/EventEmitter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13780" activeTab="2"/>
+    <workbookView windowHeight="22780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTrigger" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -75,12 +75,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -88,11 +103,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,39 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,9 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,37 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +171,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,61 +233,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,115 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,8 +424,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,8 +463,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,60 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -518,153 +509,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>40012</v>
+        <v>40010</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/Excels/EventEmitter.xlsx
+++ b/Excels/EventEmitter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22780" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTrigger" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,53 +82,117 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,79 +204,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +227,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,138 +401,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,30 +408,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +426,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,7 +449,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,21 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -509,159 +518,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1496,6 +1496,12 @@
         <v>40010</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>40001</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>

--- a/Excels/EventEmitter.xlsx
+++ b/Excels/EventEmitter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13760" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>$ID$long</t>
   </si>
@@ -54,8 +54,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -82,21 +82,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -106,13 +106,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,68 +121,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -204,6 +135,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -211,8 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,54 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,9 +495,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,200 +518,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8"/>
@@ -1407,13 +1407,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.6057692307692" customWidth="1"/>
     <col min="2" max="2" width="36.1442307692308" customWidth="1"/>
@@ -1421,9 +1421,11 @@
     <col min="4" max="4" width="19.0673076923077" customWidth="1"/>
     <col min="5" max="5" width="17.6057692307692" customWidth="1"/>
     <col min="6" max="6" width="20.6634615384615" customWidth="1"/>
+    <col min="7" max="7" width="22.5961538461538" customWidth="1"/>
+    <col min="8" max="8" width="25.4807692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1440,6 +1442,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1485,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1502,6 +1510,12 @@
         <v>40001</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>40016</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>

--- a/Excels/EventEmitter.xlsx
+++ b/Excels/EventEmitter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13700" activeTab="2"/>
+    <workbookView windowHeight="23120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>$ID$long</t>
   </si>
@@ -36,10 +36,13 @@
     <t>地点$ID$long</t>
   </si>
   <si>
-    <t>名称$Name$string</t>
+    <t>权重$Priority$long[]</t>
   </si>
   <si>
-    <t>林安</t>
+    <t>触发阶段$Stage$string[]</t>
+  </si>
+  <si>
+    <t>"BattleMapEnter"</t>
   </si>
   <si>
     <t>人物$ID$long</t>
@@ -53,12 +56,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,22 +70,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,11 +92,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,9 +117,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,9 +176,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,74 +201,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +223,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,43 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,121 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,30 +450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,11 +467,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,161 +503,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,18 +1315,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.4423076923077" customWidth="1"/>
-    <col min="2" max="2" width="19.8365384615385" customWidth="1"/>
-    <col min="3" max="3" width="17.9134615384615" customWidth="1"/>
-    <col min="4" max="4" width="19.5288461538462" customWidth="1"/>
+    <col min="2" max="2" width="17.9134615384615" customWidth="1"/>
+    <col min="3" max="3" width="19.5288461538462" customWidth="1"/>
+    <col min="4" max="4" width="34.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1341,62 +1334,28 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
+        <v>10002</v>
+      </c>
+      <c r="B2">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="17.6" spans="18:20">
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" ht="17.6" spans="18:20">
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" ht="17.6" spans="18:20">
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" ht="17.6" spans="18:20">
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" ht="17.6" spans="18:20">
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" ht="17.6" spans="18:20">
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" ht="17.6" spans="18:20">
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" ht="17.6" spans="18:20">
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1409,7 +1368,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1427,10 +1386,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>

--- a/Excels/EventEmitter.xlsx
+++ b/Excels/EventEmitter.xlsx
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,14 +71,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,123 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,67 +223,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,115 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,41 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -514,33 +475,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,118 +549,118 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Y27" sqref="Y27:Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
